--- a/DP - Practical Example.xlsx
+++ b/DP - Practical Example.xlsx
@@ -88,10 +88,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,12 +141,31 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -151,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -177,144 +205,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="116">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,48 +374,77 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="116" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="116" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="116" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="116" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="116" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="116" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="116" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="116">
+  <cellStyles count="117">
+    <cellStyle name="Comma" xfId="116" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -809,53 +889,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG31"/>
+  <dimension ref="B2:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
     <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:33" ht="18">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
         <v>400</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:33">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:33" ht="18">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3">
+      <c r="C3" s="7"/>
+      <c r="D3" s="31">
         <v>4000</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:33">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="2:33" ht="18">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="31">
         <v>500</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -877,423 +964,663 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="7"/>
-      <c r="AG7" s="7"/>
-    </row>
-    <row r="8" spans="2:33">
-      <c r="B8" s="10" t="s">
+      <c r="M7" s="4"/>
+      <c r="AG7" s="4"/>
+    </row>
+    <row r="8" spans="2:33" ht="19" thickBot="1">
+      <c r="B8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="21" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="21" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="2" t="s">
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="AG8" s="8"/>
-    </row>
-    <row r="9" spans="2:33">
-      <c r="B9" s="13" t="s">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="2:33" ht="18">
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="AG9" s="5"/>
+    </row>
+    <row r="10" spans="2:33" ht="18">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="8"/>
-    </row>
-    <row r="10" spans="2:33">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="AG10" s="8"/>
-    </row>
-    <row r="11" spans="2:33">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="AG10" s="5"/>
+    </row>
+    <row r="11" spans="2:33" ht="18">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="23"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="16">
-        <v>300</v>
-      </c>
+      <c r="L11" s="16"/>
       <c r="M11" s="17"/>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1500</v>
-      </c>
-      <c r="AG11" s="8"/>
-    </row>
-    <row r="12" spans="2:33">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="AG11" s="5"/>
+    </row>
+    <row r="12" spans="2:33" ht="18">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="23"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="L12" s="16">
+        <v>300</v>
+      </c>
       <c r="M12" s="17"/>
-      <c r="AG12" s="8"/>
-    </row>
-    <row r="13" spans="2:33">
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="31">
+        <v>1500</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="AG12" s="5"/>
+    </row>
+    <row r="13" spans="2:33" ht="18">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="23"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="16">
-        <v>200</v>
-      </c>
+      <c r="L13" s="16"/>
       <c r="M13" s="17"/>
-      <c r="N13">
-        <v>100</v>
-      </c>
-      <c r="O13">
-        <v>1000</v>
-      </c>
-      <c r="AG13" s="9"/>
-    </row>
-    <row r="14" spans="2:33">
+      <c r="N13" s="8"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="AG13" s="5"/>
+    </row>
+    <row r="14" spans="2:33" ht="18">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="L14" s="16">
+        <v>200</v>
+      </c>
       <c r="M14" s="17"/>
-      <c r="AG14" s="9"/>
-    </row>
-    <row r="15" spans="2:33">
-      <c r="B15" s="18">
+      <c r="N14" s="8">
+        <v>100</v>
+      </c>
+      <c r="O14" s="31">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="AG14" s="6"/>
+    </row>
+    <row r="15" spans="2:33" ht="18">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="AG15" s="6"/>
+    </row>
+    <row r="16" spans="2:33" ht="18">
+      <c r="B16" s="19">
         <v>300</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C16" s="28">
         <v>4000</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D16" s="20">
         <v>200</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E16" s="30">
         <v>10000</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F16" s="21">
         <v>400</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G16" s="32">
         <v>5000</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H16" s="20">
         <v>100</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I16" s="30">
         <v>6000</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J16" s="21">
         <v>200</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K16" s="32">
         <v>500</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L16" s="20">
         <v>100</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M16" s="30">
         <v>1000</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N16" s="22">
         <v>200</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O16" s="33">
         <v>500</v>
       </c>
-      <c r="AG15" s="9"/>
-    </row>
-    <row r="16" spans="2:33">
-      <c r="B16" s="16">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="AG16" s="6"/>
+    </row>
+    <row r="17" spans="2:33" ht="18">
+      <c r="B17" s="16">
         <v>400</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C17" s="29">
         <v>4000</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="AG16" s="9"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16">
-        <v>300</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="23">
-        <v>300</v>
-      </c>
-      <c r="G17" s="16">
-        <v>5500</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="D17" s="20"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="AG17" s="6"/>
+    </row>
+    <row r="18" spans="2:33" ht="18">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="16">
+        <v>300</v>
+      </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16">
-        <v>200</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="23">
-        <v>100</v>
-      </c>
-      <c r="K18" s="16">
-        <v>1500</v>
-      </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="2:18">
+      <c r="F18" s="18">
+        <v>300</v>
+      </c>
+      <c r="G18" s="29">
+        <v>5500</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="2:33" ht="18">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="16">
+        <v>200</v>
+      </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="2:18">
+      <c r="J19" s="18">
+        <v>100</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1500</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="2:33" ht="18">
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="23"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="16">
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="2:33" ht="18">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16">
         <v>0</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20">
+      <c r="M21" s="17"/>
+      <c r="N21" s="8">
         <v>300</v>
       </c>
-      <c r="O20">
+      <c r="O21" s="31">
         <v>4000</v>
       </c>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="P25" s="1" t="s">
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="2:33" ht="18">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="2:33" ht="18">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="2:33" ht="18">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="2:33" ht="18">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="2:33" ht="18">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R26" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
-      <c r="P26">
+    <row r="27" spans="2:33" ht="18">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8">
         <v>300</v>
       </c>
-      <c r="Q26">
+      <c r="Q27" s="8">
         <v>0</v>
       </c>
-      <c r="R26">
+      <c r="R27" s="31">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
-      <c r="P27">
+    <row r="28" spans="2:33" ht="18">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8">
         <v>200</v>
       </c>
-      <c r="Q27">
+      <c r="Q28" s="8">
         <v>100</v>
       </c>
-      <c r="R27">
+      <c r="R28" s="31">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
-      <c r="P28" s="5">
+    <row r="29" spans="2:33" ht="18">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="23">
         <v>100</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q29" s="23">
         <v>200</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R29" s="34">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
-      <c r="P29">
+    <row r="30" spans="2:33" ht="18">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8">
         <v>0</v>
       </c>
-      <c r="Q29">
+      <c r="Q30" s="8">
         <v>300</v>
       </c>
-      <c r="R29">
+      <c r="R30" s="31">
         <v>4000</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
-      <c r="P30">
+    <row r="31" spans="2:33" ht="18">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8">
         <v>200</v>
       </c>
-      <c r="Q30">
+      <c r="Q31" s="8">
         <v>400</v>
       </c>
-      <c r="R30">
+      <c r="R31" s="31">
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
-      <c r="P31">
+    <row r="32" spans="2:33" ht="18">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8">
         <v>0</v>
       </c>
-      <c r="Q31">
+      <c r="Q32" s="8">
         <v>400</v>
       </c>
-      <c r="R31">
+      <c r="R32" s="31">
         <v>4000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DP - Practical Example.xlsx
+++ b/DP - Practical Example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>September</t>
   </si>
@@ -121,6 +121,9 @@
       <t>300</t>
     </r>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +133,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,23 +185,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -211,6 +197,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -355,7 +347,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="162">
+  <cellStyleXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -518,8 +510,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,70 +542,97 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="115" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="115" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="115" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="115" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="10" xfId="115" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="162">
+  <cellStyles count="164">
     <cellStyle name="Comma" xfId="115" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -693,6 +714,7 @@
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -773,6 +795,7 @@
     <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1102,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R21"/>
+  <dimension ref="B2:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1124,38 +1147,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="24" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="43">
+      <c r="C2" s="34"/>
+      <c r="D2" s="28">
         <v>400</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="24" customHeight="1">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="45">
+      <c r="C3" s="34"/>
+      <c r="D3" s="30">
         <v>4000</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="24" customHeight="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="40">
+      <c r="C4" s="36"/>
+      <c r="D4" s="26">
         <v>500</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1163,35 +1186,35 @@
       <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="2:18" ht="18">
       <c r="B9" s="2"/>
@@ -1212,6 +1235,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:18" ht="18">
+      <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1255,9 +1279,10 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5"/>
-      <c r="R10" s="29"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="2:18" ht="18">
+      <c r="B11" s="1"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
@@ -1272,261 +1297,327 @@
       <c r="N11" s="8"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:18" ht="18">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="22">
+      <c r="B12" s="1"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="16">
         <v>300</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="17">
         <v>0</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="18">
         <v>1500</v>
       </c>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:18" ht="18">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="2:18" ht="18">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="22">
+      <c r="B14" s="1"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="16">
         <v>200</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="17">
         <v>100</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="18">
         <v>1000</v>
       </c>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:18" ht="18">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="2:18" ht="18" customHeight="1">
-      <c r="C16" s="35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:18" ht="18">
+      <c r="B16" s="1"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
         <v>300</v>
       </c>
-      <c r="D16" s="36">
+      <c r="L16" s="43">
         <v>4000</v>
       </c>
-      <c r="E16" s="34">
-        <v>10000</v>
-      </c>
-      <c r="F16" s="35">
+      <c r="M16" s="44">
+        <v>4500</v>
+      </c>
+      <c r="N16" s="41">
+        <v>100</v>
+      </c>
+      <c r="O16" s="42">
         <v>200</v>
       </c>
-      <c r="G16" s="35">
+      <c r="P16" s="40">
+        <v>500</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:17" ht="18" customHeight="1">
+      <c r="B17" s="1"/>
+      <c r="C17" s="47">
+        <v>300</v>
+      </c>
+      <c r="D17" s="48">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="15">
+        <v>9000</v>
+      </c>
+      <c r="F17" s="49">
+        <v>200</v>
+      </c>
+      <c r="G17" s="47">
         <v>400</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H17" s="48">
         <v>5000</v>
       </c>
-      <c r="I16" s="34">
-        <v>6000</v>
-      </c>
-      <c r="J16" s="35">
+      <c r="I17" s="15">
+        <v>5500</v>
+      </c>
+      <c r="J17" s="41">
         <v>100</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K17" s="50">
         <v>200</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L17" s="51">
         <v>500</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M17" s="52">
         <v>1000</v>
       </c>
-      <c r="N16" s="35">
-        <v>100</v>
-      </c>
-      <c r="O16" s="37">
-        <v>200</v>
-      </c>
-      <c r="P16" s="38">
-        <v>500</v>
-      </c>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="17"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="2:17" ht="18">
       <c r="B18" s="8"/>
-      <c r="C18" s="25">
+      <c r="C18" s="19">
         <v>400</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="20">
         <v>4000</v>
       </c>
-      <c r="E18" s="27">
-        <v>10500</v>
-      </c>
-      <c r="F18" s="25">
+      <c r="E18" s="21">
+        <v>9500</v>
+      </c>
+      <c r="F18" s="19">
         <v>300</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="19">
         <v>300</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="20">
         <v>5500</v>
       </c>
-      <c r="I18" s="21">
-        <v>6500</v>
-      </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="17"/>
+      <c r="I18" s="15">
+        <v>6000</v>
+      </c>
+      <c r="J18" s="41"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="2:17" ht="18">
       <c r="B19" s="8"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="30">
+      <c r="C19" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="56">
+        <v>400</v>
+      </c>
+      <c r="G19" s="56">
         <v>200</v>
       </c>
-      <c r="K19" s="30">
-        <v>100</v>
-      </c>
-      <c r="L19" s="31">
-        <v>1000</v>
-      </c>
-      <c r="M19" s="32">
-        <v>1500</v>
-      </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="17"/>
+      <c r="H19" s="57">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="58">
+        <v>2500</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="2:17" ht="18">
       <c r="B20" s="8"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="17"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="23">
+        <v>200</v>
+      </c>
+      <c r="K20" s="23">
+        <v>100</v>
+      </c>
+      <c r="L20" s="24">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="25">
+        <v>1500</v>
+      </c>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="2:17" ht="18">
       <c r="B21" s="8"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="22">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16">
+        <v>300</v>
+      </c>
+      <c r="K21" s="16">
         <v>0</v>
       </c>
-      <c r="O21" s="23">
+      <c r="L21" s="18">
+        <v>1500</v>
+      </c>
+      <c r="M21" s="44">
+        <v>2000</v>
+      </c>
+      <c r="N21" s="41"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="2:17" ht="18">
+      <c r="B22" s="8"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="2:17" ht="18">
+      <c r="B23" s="8"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
         <v>300</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P23" s="18">
         <v>4000</v>
       </c>
-      <c r="Q21" s="17"/>
+      <c r="Q23" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J18"/>
+  <mergeCells count="14">
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="K8:M8"/>
@@ -1534,6 +1625,8 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
